--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="50" windowWidth="13380" windowHeight="4340"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="9290" windowHeight="4660"/>
   </bookViews>
   <sheets>
     <sheet name="organisation" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="product" sheetId="3" r:id="rId3"/>
     <sheet name="conWithOrg" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -397,7 +398,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
